--- a/test-sample/test.xlsx
+++ b/test-sample/test.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\devs\SBCG Developments\mockload-compiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\at\Documents\devs\Abap\mockup-compiler-js\test-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6265ED-D785-4C9C-BDCA-3703F637D70D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B5F42-E795-4E85-BBB1-8203BE9CAB36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" xr2:uid="{E1E9901D-3772-4DF8-B2B7-33B164E4572D}"/>
+    <workbookView xWindow="7071" yWindow="806" windowWidth="27725" windowHeight="13583" activeTab="1" xr2:uid="{E1E9901D-3772-4DF8-B2B7-33B164E4572D}"/>
   </bookViews>
   <sheets>
     <sheet name="_contents" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="_exclude" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Column1</t>
   </si>
@@ -72,13 +74,19 @@
   </si>
   <si>
     <t>to skip</t>
+  </si>
+  <si>
+    <t>Sheet3</t>
+  </si>
+  <si>
+    <t>Sheet to exclude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +110,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -137,12 +153,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -458,13 +475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E282C7-3E4A-41F5-8BC4-837D7E46A1D9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -485,6 +502,14 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -494,6 +519,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2B333A-F803-48F9-BA41-60B183CBC8B5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFD82B1-48E1-4B34-8FC9-F5A4D871A1A1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -501,7 +555,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -549,17 +603,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5F7552-2D73-4C80-A45E-EDA9FD988D96}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,4 +661,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F99B55-5762-4DE4-884F-AC885E16BD9B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43344</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43345</v>
+      </c>
+      <c r="C3">
+        <v>16.37</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test-sample/test.xlsx
+++ b/test-sample/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\at\Documents\devs\Abap\mockup-compiler-js\test-sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\at\Documents\devs\abap\mockup-compiler-js\test-sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B5F42-E795-4E85-BBB1-8203BE9CAB36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D130FBA7-6CF9-4BF8-9A65-809335475C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7071" yWindow="806" windowWidth="27725" windowHeight="13583" activeTab="1" xr2:uid="{E1E9901D-3772-4DF8-B2B7-33B164E4572D}"/>
+    <workbookView xWindow="30" yWindow="430" windowWidth="25800" windowHeight="10100" activeTab="2" xr2:uid="{E1E9901D-3772-4DF8-B2B7-33B164E4572D}"/>
   </bookViews>
   <sheets>
     <sheet name="_contents" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="-Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Column1</t>
   </si>
@@ -179,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,9 +482,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -491,7 +492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -499,12 +500,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -522,21 +523,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2B333A-F803-48F9-BA41-60B183CBC8B5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -551,13 +552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFD82B1-48E1-4B34-8FC9-F5A4D871A1A1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -573,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -581,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -589,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -611,12 +612,12 @@
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -644,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -668,15 +669,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -690,7 +691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -704,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -716,6 +717,53 @@
       </c>
       <c r="D3" t="b">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F726C4-169F-48AA-A3FB-F95DF6B0E3F7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
